--- a/lukisongroup/cronjob/temp/PostmanCustomer.xlsx
+++ b/lukisongroup/cronjob/temp/PostmanCustomer.xlsx
@@ -5594,7 +5594,9 @@
       <c r="E2" s="2">
         <v>2183701085</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">

--- a/lukisongroup/cronjob/temp/PostmanCustomer.xlsx
+++ b/lukisongroup/cronjob/temp/PostmanCustomer.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1085">
   <si>
     <t>CUST_ID</t>
   </si>
@@ -433,7 +433,7 @@
     <t>CARREFOUR SERANG</t>
   </si>
   <si>
-    <t>Jl. A. Yani No.196 - 198 Serang Kota</t>
+    <t>Jl. A. Yani No.196-198, Sumur Pecung, Kecamatan Serang</t>
   </si>
   <si>
     <t>+62 811-8601 560</t>
@@ -445,7 +445,7 @@
     <t>TRANSMART TANGERANG CENTER</t>
   </si>
   <si>
-    <t>Kompleks Mahkota Mas. Jl. MH Thamrin, Cikokol 15117</t>
+    <t>Jalan MH. Thamrin No. 1, Komplek Mahkota Mas, Cikokol</t>
   </si>
   <si>
     <t>+62 811 - 849 7672</t>
@@ -481,7 +481,7 @@
     <t>CARREFOUR SUPERMALL KARAWACI</t>
   </si>
   <si>
-    <t>Jl. Boulevar Diponegoro No. 105, Lippo Karawaci 1200, Tangerang - 15811</t>
+    <t>Jl. Boulevar Diponegoro No. 105, Lippo Karawaci 1200</t>
   </si>
   <si>
     <t>+62 811 - 1032 916</t>
@@ -508,6 +508,9 @@
     <t>ITC Depok, Jl. Margoda Raya</t>
   </si>
   <si>
+    <t>Jawa Barat</t>
+  </si>
+  <si>
     <t>+62 811-18 79 53</t>
   </si>
   <si>
@@ -793,18 +796,6 @@
     <t>CUS.2016.000108</t>
   </si>
   <si>
-    <t>CUS.2016.000109</t>
-  </si>
-  <si>
-    <t>Giant Hypermarket - Plaza Semanggi</t>
-  </si>
-  <si>
-    <t>Jl. Jend. Sudirman Kav. 50 Karet Semanggi Setiabudi Jakarta Selatan DKI Jakarta</t>
-  </si>
-  <si>
-    <t>(021) 25536230 </t>
-  </si>
-  <si>
     <t>CUS.2016.000110</t>
   </si>
   <si>
@@ -1699,9 +1690,6 @@
     <t>JL Sunda No.69B, Kelurahan Kebon Pisang, Sumur Bandung - Bandung</t>
   </si>
   <si>
-    <t>Jawa Barat</t>
-  </si>
-  <si>
     <t>CUS.2016.000012</t>
   </si>
   <si>
@@ -1831,19 +1819,10 @@
     <t>0341-5023300</t>
   </si>
   <si>
-    <t>CUS.2016.000022</t>
-  </si>
-  <si>
-    <t>PT.ACS</t>
-  </si>
-  <si>
-    <t>HO</t>
-  </si>
-  <si>
     <t>CUS.2016.000027</t>
   </si>
   <si>
-    <t>ACS - Kelapa Gading Barat</t>
+    <t>ACS - Kelapa Gading Barat1</t>
   </si>
   <si>
     <t>Jl Raya Kelapa Gading Boulevard Mal Kelapa Gading Bl M Lt Dasar 179</t>
@@ -1900,6 +1879,9 @@
     <t>CUS.2016.000032</t>
   </si>
   <si>
+    <t>ACS - Kelapa Gading Barat2</t>
+  </si>
+  <si>
     <t>Jl Boulevard Artha Gading Slt 1 Mal Artha Gading Lt 1 Bl B-6/25-26</t>
   </si>
   <si>
@@ -1909,9 +1891,15 @@
     <t>CUS.2016.000033</t>
   </si>
   <si>
+    <t>ACS - Kelapa Gading Barat3</t>
+  </si>
+  <si>
     <t>CUS.2016.000034</t>
   </si>
   <si>
+    <t>ACS - Kelapa Gading Barat4</t>
+  </si>
+  <si>
     <t>Jl Raya Boulevard Brt Mall Of Indonesia Lt 1</t>
   </si>
   <si>
@@ -1948,7 +1936,7 @@
     <t>ACS - Maphar Taman Sari</t>
   </si>
   <si>
-    <t>Jl Hayam Wuruk 108 Hayam Wuruk Plaza Lt Dasar Bl </t>
+    <t>Taman Sari Jl. Hayam Wuruk No.108, RT.4/RW.9, Maphar, Tamansari</t>
   </si>
   <si>
     <t>(021) 6497384</t>
@@ -1981,447 +1969,423 @@
     <t>CUS.2016.000415</t>
   </si>
   <si>
-    <t>sasadaad</t>
+    <t>sasadaadd1</t>
   </si>
   <si>
     <t>seeeqqe</t>
   </si>
   <si>
-    <t>CUS.2016.000331</t>
-  </si>
-  <si>
-    <t>Carrefour Ambassador</t>
+    <t>CUS.2016.000348</t>
+  </si>
+  <si>
+    <t>Carrefour Blok M</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>CUS.2016.000361</t>
+  </si>
+  <si>
+    <t>Carrefour Karawaci</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>CUS.2016.000367</t>
+  </si>
+  <si>
+    <t>Carrefour Harapan Indah</t>
+  </si>
+  <si>
+    <t>aaaaaaaa</t>
+  </si>
+  <si>
+    <t>CUS.2016.000391</t>
+  </si>
+  <si>
+    <t>Carrefour Cilandak</t>
+  </si>
+  <si>
+    <t>CUS.2016.000392</t>
+  </si>
+  <si>
+    <t>Carrefour Emporium</t>
+  </si>
+  <si>
+    <t>CUS.2016.000393</t>
+  </si>
+  <si>
+    <t>Carrefour Pluit Vilage</t>
+  </si>
+  <si>
+    <t>CUS.2016.000394</t>
+  </si>
+  <si>
+    <t>Carrefour Season City</t>
+  </si>
+  <si>
+    <t>CUS.2016.000105</t>
+  </si>
+  <si>
+    <t>Giant Hypermarket - Ujung Menteng</t>
+  </si>
+  <si>
+    <t>JL. Raya Bekasi KM 25, Cakung - East Jakarta 13960</t>
+  </si>
+  <si>
+    <t>CUS.2016.000195</t>
+  </si>
+  <si>
+    <t>Giant Supermarket - SPM Sunter Mall</t>
+  </si>
+  <si>
+    <t>Jl. Danau Sunter Utara No.11, RT.8/RW.13, Sunter Agung, Tj. Priok, Kota Jkt Utara, Daerah Khusus Ibukota Jakarta</t>
+  </si>
+  <si>
+    <t>CUS.2016.000198</t>
+  </si>
+  <si>
+    <t>Giant Supermarket - Gunung Sahari</t>
+  </si>
+  <si>
+    <t>Jl. Bungur Besar Raya No.59, RT.16/RW.3, Gn. Sahari Utara, Kemayoran, Kota Jakarta Pusat, Daerah Khusus Ibukota Jakarta</t>
+  </si>
+  <si>
+    <t>0800 1998877</t>
+  </si>
+  <si>
+    <t>CUS.2016.000248</t>
+  </si>
+  <si>
+    <t>Giant Cilandak</t>
+  </si>
+  <si>
+    <t>JL. Fatmawati, Cilandak Barat , Cilandak , 12430 Jakarta Selatan , DKI Jakarta</t>
+  </si>
+  <si>
+    <t>(021) 7500556</t>
+  </si>
+  <si>
+    <t>CUS.2016.000252</t>
+  </si>
+  <si>
+    <t>Giant Mediterania</t>
+  </si>
+  <si>
+    <t>Jalan Tanjung Duren Raya No.59, RT.3/RW.5, Tanjung Duren Selatan, Grogolpetamburan, Jakarta Barat, Daerah Khusus Ibukota Jakarta</t>
+  </si>
+  <si>
+    <t>CUS.2016.000262</t>
+  </si>
+  <si>
+    <t>Giant Villa Melati</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>CUS.2016.000268</t>
+  </si>
+  <si>
+    <t>Giant Kalimalang</t>
+  </si>
+  <si>
+    <t>CUS.2016.000270</t>
+  </si>
+  <si>
+    <t>Giant Kalibata</t>
+  </si>
+  <si>
+    <t>CUS.2016.000273</t>
+  </si>
+  <si>
+    <t>Giant Mampang</t>
+  </si>
+  <si>
+    <t>CUS.2016.000275</t>
+  </si>
+  <si>
+    <t>Giant Taman Alfa</t>
+  </si>
+  <si>
+    <t>CUS.2016.000285</t>
+  </si>
+  <si>
+    <t>Giant BSD</t>
+  </si>
+  <si>
+    <t>CUS.2016.000314</t>
+  </si>
+  <si>
+    <t>Giant Poris</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>CUS.2016.000317</t>
+  </si>
+  <si>
+    <t>Giant Pinang</t>
+  </si>
+  <si>
+    <t>CUS.2016.000322</t>
+  </si>
+  <si>
+    <t>Giant Pondok Gede</t>
+  </si>
+  <si>
+    <t>CUS.2016.000328</t>
+  </si>
+  <si>
+    <t>Giant Fatmawati</t>
+  </si>
+  <si>
+    <t>CUS.2016.000347</t>
+  </si>
+  <si>
+    <t>Giant Cimanggis</t>
+  </si>
+  <si>
+    <t>CUS.2016.000349</t>
+  </si>
+  <si>
+    <t>Giant Blok M</t>
+  </si>
+  <si>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>CUS.2016.000363</t>
+  </si>
+  <si>
+    <t>Giant Paramount</t>
+  </si>
+  <si>
+    <t>CUS.2016.000365</t>
+  </si>
+  <si>
+    <t>Giant Ujung Menteng</t>
+  </si>
+  <si>
+    <t>CUS.2016.000366</t>
+  </si>
+  <si>
+    <t>Giant Harapan Indah</t>
+  </si>
+  <si>
+    <t>CUS.2016.000371</t>
+  </si>
+  <si>
+    <t>Giant Cinere</t>
+  </si>
+  <si>
+    <t>CUS.2016.000372</t>
+  </si>
+  <si>
+    <t>Giant Supermarket Lebak Bulus</t>
+  </si>
+  <si>
+    <t>CUS.2016.000374</t>
+  </si>
+  <si>
+    <t>Giant Bona Indah</t>
+  </si>
+  <si>
+    <t>CUS.2016.000376</t>
+  </si>
+  <si>
+    <t>Giant Slipi Jaya</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>CUS.2016.000379</t>
+  </si>
+  <si>
+    <t>Giant Rempoa</t>
+  </si>
+  <si>
+    <t>CUS.2016.000380</t>
+  </si>
+  <si>
+    <t>Giant Ciputat</t>
+  </si>
+  <si>
+    <t>CUS.2016.000385</t>
+  </si>
+  <si>
+    <t>Giant Pondok Kopi</t>
+  </si>
+  <si>
+    <t>CUS.2016.000387</t>
+  </si>
+  <si>
+    <t>Giant Bintara</t>
+  </si>
+  <si>
+    <t>CUS.2016.000389</t>
+  </si>
+  <si>
+    <t>Giant Cirende</t>
+  </si>
+  <si>
+    <t>CUS.2016.000390</t>
+  </si>
+  <si>
+    <t>Giant Lebak Bulus</t>
+  </si>
+  <si>
+    <t>CUS.2016.000397</t>
+  </si>
+  <si>
+    <t>Giant Pondok Cabe</t>
+  </si>
+  <si>
+    <t>CUS.2016.000405</t>
+  </si>
+  <si>
+    <t>Giant Margo City</t>
+  </si>
+  <si>
+    <t>CUS.2016.000410</t>
+  </si>
+  <si>
+    <t>Giant Graha Raya</t>
+  </si>
+  <si>
+    <t>CUS.2016.000411</t>
+  </si>
+  <si>
+    <t>Giant Alam Sutra</t>
+  </si>
+  <si>
+    <t>CUS.2016.000221</t>
+  </si>
+  <si>
+    <t>lion arion</t>
+  </si>
+  <si>
+    <t>ciledug</t>
+  </si>
+  <si>
+    <t>CUS.2016.000240</t>
+  </si>
+  <si>
+    <t>LSI Bintaro</t>
+  </si>
+  <si>
+    <t>Jl. Bintaro Utama B1/E 10-01, Kel. Bintaro, Kec. Pesanggrahan, Daerah Khusus Ibukota Jakarta</t>
+  </si>
+  <si>
+    <t>(021) 73881334</t>
+  </si>
+  <si>
+    <t>CUS.2016.000246</t>
+  </si>
+  <si>
+    <t>LSI Arion</t>
+  </si>
+  <si>
+    <t>JL. Pemuda Kav. 3, Rawamangun, Daerah Khusus Ibukota Jakarta</t>
+  </si>
+  <si>
+    <t>(021) 4713060</t>
+  </si>
+  <si>
+    <t>CUS.2016.000263</t>
+  </si>
+  <si>
+    <t>LSI BSD</t>
+  </si>
+  <si>
+    <t>CUS.2016.000264</t>
+  </si>
+  <si>
+    <t>LSI Teraskota</t>
+  </si>
+  <si>
+    <t>CUS.2016.000267</t>
+  </si>
+  <si>
+    <t>LSI Pondok Bambu</t>
+  </si>
+  <si>
+    <t>CUS.2016.000277</t>
+  </si>
+  <si>
+    <t>LSI Sunrise</t>
+  </si>
+  <si>
+    <t>CUS.2016.000295</t>
+  </si>
+  <si>
+    <t>LSI Pancoran</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>CUS.2016.000296</t>
+  </si>
+  <si>
+    <t>LSI Tebet</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>CUS.2016.000297</t>
+  </si>
+  <si>
+    <t>LSI Mampang</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>CUS.2016.000298</t>
+  </si>
+  <si>
+    <t>LSI Pasar Minggu</t>
+  </si>
+  <si>
+    <t>CUS.2016.000301</t>
+  </si>
+  <si>
+    <t>LSI Kelapa Dua</t>
+  </si>
+  <si>
+    <t>CUS.2016.000312</t>
+  </si>
+  <si>
+    <t>LSI Pinang</t>
+  </si>
+  <si>
+    <t>CUS.2016.000313</t>
+  </si>
+  <si>
+    <t>LSI Hasyim Ashari</t>
+  </si>
+  <si>
+    <t>CUS.2016.000321</t>
+  </si>
+  <si>
+    <t>LSI Pasar Rebo</t>
+  </si>
+  <si>
+    <t>CUS.2016.000336</t>
+  </si>
+  <si>
+    <t>LSI Teluk Gong</t>
   </si>
   <si>
     <t>zzz</t>
   </si>
   <si>
-    <t>CUS.2016.000334</t>
-  </si>
-  <si>
-    <t>Carrefour Kota Kasablanka</t>
-  </si>
-  <si>
-    <t>zz</t>
-  </si>
-  <si>
-    <t>CUS.2016.000342</t>
-  </si>
-  <si>
-    <t>Transmart Cikokol</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>CUS.2016.000348</t>
-  </si>
-  <si>
-    <t>Carrefour Blok M</t>
-  </si>
-  <si>
-    <t>CUS.2016.000361</t>
-  </si>
-  <si>
-    <t>Carrefour Karawaci</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>CUS.2016.000367</t>
-  </si>
-  <si>
-    <t>Carrefour Harapan Indah</t>
-  </si>
-  <si>
-    <t>aaaaaaaa</t>
-  </si>
-  <si>
-    <t>CUS.2016.000391</t>
-  </si>
-  <si>
-    <t>Carrefour Cilandak</t>
-  </si>
-  <si>
-    <t>CUS.2016.000392</t>
-  </si>
-  <si>
-    <t>Carrefour Emporium</t>
-  </si>
-  <si>
-    <t>CUS.2016.000393</t>
-  </si>
-  <si>
-    <t>Carrefour Pluit Vilage</t>
-  </si>
-  <si>
-    <t>CUS.2016.000394</t>
-  </si>
-  <si>
-    <t>Carrefour Season City</t>
-  </si>
-  <si>
-    <t>CUS.2016.000105</t>
-  </si>
-  <si>
-    <t>Giant Hypermarket - Ujung Menteng</t>
-  </si>
-  <si>
-    <t>JL. Raya Bekasi KM 25, Cakung - East Jakarta 13960</t>
-  </si>
-  <si>
-    <t>CUS.2016.000195</t>
-  </si>
-  <si>
-    <t>Giant Supermarket - SPM Sunter Mall</t>
-  </si>
-  <si>
-    <t>Jl. Danau Sunter Utara No.11, RT.8/RW.13, Sunter Agung, Tj. Priok, Kota Jkt Utara, Daerah Khusus Ibukota Jakarta</t>
-  </si>
-  <si>
-    <t>CUS.2016.000198</t>
-  </si>
-  <si>
-    <t>Giant Supermarket - Gunung Sahari</t>
-  </si>
-  <si>
-    <t>Jl. Bungur Besar Raya No.59, RT.16/RW.3, Gn. Sahari Utara, Kemayoran, Kota Jakarta Pusat, Daerah Khusus Ibukota Jakarta</t>
-  </si>
-  <si>
-    <t>0800 1998877</t>
-  </si>
-  <si>
-    <t>CUS.2016.000248</t>
-  </si>
-  <si>
-    <t>Giant Cilandak</t>
-  </si>
-  <si>
-    <t>JL. Fatmawati, Cilandak Barat , Cilandak , 12430 Jakarta Selatan , DKI Jakarta</t>
-  </si>
-  <si>
-    <t>(021) 7500556</t>
-  </si>
-  <si>
-    <t>CUS.2016.000252</t>
-  </si>
-  <si>
-    <t>Giant Mediterania</t>
-  </si>
-  <si>
-    <t>Jalan Tanjung Duren Raya No.59, RT.3/RW.5, Tanjung Duren Selatan, Grogolpetamburan, Jakarta Barat, Daerah Khusus Ibukota Jakarta</t>
-  </si>
-  <si>
-    <t>CUS.2016.000262</t>
-  </si>
-  <si>
-    <t>Giant Villa Melati</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>CUS.2016.000268</t>
-  </si>
-  <si>
-    <t>Giant Kalimalang</t>
-  </si>
-  <si>
-    <t>CUS.2016.000270</t>
-  </si>
-  <si>
-    <t>Giant Kalibata</t>
-  </si>
-  <si>
-    <t>CUS.2016.000273</t>
-  </si>
-  <si>
-    <t>Giant Mampang</t>
-  </si>
-  <si>
-    <t>CUS.2016.000275</t>
-  </si>
-  <si>
-    <t>Giant Taman Alfa</t>
-  </si>
-  <si>
-    <t>CUS.2016.000285</t>
-  </si>
-  <si>
-    <t>Giant BSD</t>
-  </si>
-  <si>
-    <t>CUS.2016.000314</t>
-  </si>
-  <si>
-    <t>Giant Poris</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>CUS.2016.000317</t>
-  </si>
-  <si>
-    <t>Giant Pinang</t>
-  </si>
-  <si>
-    <t>CUS.2016.000322</t>
-  </si>
-  <si>
-    <t>Giant Pondok Gede</t>
-  </si>
-  <si>
-    <t>CUS.2016.000328</t>
-  </si>
-  <si>
-    <t>Giant Fatmawati</t>
-  </si>
-  <si>
-    <t>CUS.2016.000347</t>
-  </si>
-  <si>
-    <t>Giant Cimanggis</t>
-  </si>
-  <si>
-    <t>CUS.2016.000349</t>
-  </si>
-  <si>
-    <t>Giant Blok M</t>
-  </si>
-  <si>
-    <t>ssss</t>
-  </si>
-  <si>
-    <t>CUS.2016.000363</t>
-  </si>
-  <si>
-    <t>Giant Paramount</t>
-  </si>
-  <si>
-    <t>CUS.2016.000365</t>
-  </si>
-  <si>
-    <t>Giant Ujung Menteng</t>
-  </si>
-  <si>
-    <t>CUS.2016.000366</t>
-  </si>
-  <si>
-    <t>Giant Harapan Indah</t>
-  </si>
-  <si>
-    <t>CUS.2016.000371</t>
-  </si>
-  <si>
-    <t>Giant Cinere</t>
-  </si>
-  <si>
-    <t>CUS.2016.000372</t>
-  </si>
-  <si>
-    <t>Giant Supermarket Lebak Bulus</t>
-  </si>
-  <si>
-    <t>CUS.2016.000374</t>
-  </si>
-  <si>
-    <t>Giant Bona Indah</t>
-  </si>
-  <si>
-    <t>CUS.2016.000376</t>
-  </si>
-  <si>
-    <t>Giant Slipi Jaya</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>CUS.2016.000379</t>
-  </si>
-  <si>
-    <t>Giant Rempoa</t>
-  </si>
-  <si>
-    <t>CUS.2016.000380</t>
-  </si>
-  <si>
-    <t>Giant Ciputat</t>
-  </si>
-  <si>
-    <t>CUS.2016.000385</t>
-  </si>
-  <si>
-    <t>Giant Pondok Kopi</t>
-  </si>
-  <si>
-    <t>CUS.2016.000387</t>
-  </si>
-  <si>
-    <t>Giant Bintara</t>
-  </si>
-  <si>
-    <t>CUS.2016.000389</t>
-  </si>
-  <si>
-    <t>Giant Cirende</t>
-  </si>
-  <si>
-    <t>CUS.2016.000390</t>
-  </si>
-  <si>
-    <t>Giant Lebak Bulus</t>
-  </si>
-  <si>
-    <t>CUS.2016.000397</t>
-  </si>
-  <si>
-    <t>Giant Pondok Cabe</t>
-  </si>
-  <si>
-    <t>CUS.2016.000405</t>
-  </si>
-  <si>
-    <t>Giant Margo City</t>
-  </si>
-  <si>
-    <t>CUS.2016.000410</t>
-  </si>
-  <si>
-    <t>Giant Graha Raya</t>
-  </si>
-  <si>
-    <t>CUS.2016.000411</t>
-  </si>
-  <si>
-    <t>Giant Alam Sutra</t>
-  </si>
-  <si>
-    <t>CUS.2016.000221</t>
-  </si>
-  <si>
-    <t>lion arion</t>
-  </si>
-  <si>
-    <t>ciledug</t>
-  </si>
-  <si>
-    <t>CUS.2016.000240</t>
-  </si>
-  <si>
-    <t>LSI Bintaro</t>
-  </si>
-  <si>
-    <t>Jl. Bintaro Utama B1/E 10-01, Kel. Bintaro, Kec. Pesanggrahan, Daerah Khusus Ibukota Jakarta</t>
-  </si>
-  <si>
-    <t>(021) 73881334</t>
-  </si>
-  <si>
-    <t>CUS.2016.000241</t>
-  </si>
-  <si>
-    <t>CUS.2016.000246</t>
-  </si>
-  <si>
-    <t>LSI Arion</t>
-  </si>
-  <si>
-    <t>JL. Pemuda Kav. 3, Rawamangun, Daerah Khusus Ibukota Jakarta</t>
-  </si>
-  <si>
-    <t>(021) 4713060</t>
-  </si>
-  <si>
-    <t>CUS.2016.000263</t>
-  </si>
-  <si>
-    <t>LSI BSD</t>
-  </si>
-  <si>
-    <t>CUS.2016.000264</t>
-  </si>
-  <si>
-    <t>LSI Teraskota</t>
-  </si>
-  <si>
-    <t>CUS.2016.000267</t>
-  </si>
-  <si>
-    <t>LSI Pondok Bambu</t>
-  </si>
-  <si>
-    <t>CUS.2016.000277</t>
-  </si>
-  <si>
-    <t>LSI Sunrise</t>
-  </si>
-  <si>
-    <t>CUS.2016.000295</t>
-  </si>
-  <si>
-    <t>LSI Pancoran</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>CUS.2016.000296</t>
-  </si>
-  <si>
-    <t>LSI Tebet</t>
-  </si>
-  <si>
-    <t>cccc</t>
-  </si>
-  <si>
-    <t>CUS.2016.000297</t>
-  </si>
-  <si>
-    <t>LSI Mampang</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>CUS.2016.000298</t>
-  </si>
-  <si>
-    <t>LSI Pasar Minggu</t>
-  </si>
-  <si>
-    <t>CUS.2016.000301</t>
-  </si>
-  <si>
-    <t>LSI Kelapa Dua</t>
-  </si>
-  <si>
-    <t>CUS.2016.000312</t>
-  </si>
-  <si>
-    <t>LSI Pinang</t>
-  </si>
-  <si>
-    <t>CUS.2016.000313</t>
-  </si>
-  <si>
-    <t>LSI Hasyim Ashari</t>
-  </si>
-  <si>
-    <t>CUS.2016.000321</t>
-  </si>
-  <si>
-    <t>LSI Pasar Rebo</t>
-  </si>
-  <si>
-    <t>CUS.2016.000336</t>
-  </si>
-  <si>
-    <t>LSI Teluk Gong</t>
-  </si>
-  <si>
     <t>CUS.2016.000337</t>
   </si>
   <si>
@@ -3020,6 +2984,12 @@
   </si>
   <si>
     <t>JM Market</t>
+  </si>
+  <si>
+    <t>CUS.2016.000421</t>
+  </si>
+  <si>
+    <t>test ptr</t>
   </si>
   <si>
     <t>CUS.2016.000231</t>
@@ -3690,10 +3660,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A145" sqref="A145"/>
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4441,13 +4411,11 @@
       <c r="D32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1111</v>
-      </c>
+      <c r="E32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
         <v>135</v>
       </c>
@@ -4466,13 +4434,11 @@
       <c r="D33" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1111</v>
-      </c>
+      <c r="E33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
         <v>139</v>
       </c>
@@ -4491,13 +4457,11 @@
       <c r="D34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1111</v>
-      </c>
+      <c r="E34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
         <v>143</v>
       </c>
@@ -4516,13 +4480,11 @@
       <c r="D35" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1111</v>
-      </c>
+      <c r="E35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
         <v>147</v>
       </c>
@@ -4541,13 +4503,11 @@
       <c r="D36" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1111</v>
-      </c>
+      <c r="E36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
         <v>151</v>
       </c>
@@ -4566,13 +4526,11 @@
       <c r="D37" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1111</v>
-      </c>
+      <c r="E37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
         <v>155</v>
       </c>
@@ -4591,13 +4549,11 @@
       <c r="D38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1111</v>
-      </c>
+      <c r="E38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
         <v>159</v>
       </c>
@@ -4616,55 +4572,51 @@
       <c r="D39" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1111</v>
-      </c>
+      <c r="E39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1111</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -4674,195 +4626,181 @@
         <v>1111</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1111</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1111</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1111</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1111</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1111</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1111</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1111</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
@@ -4872,22 +4810,22 @@
         <v>1111</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -4897,22 +4835,22 @@
         <v>1111</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
@@ -4922,22 +4860,22 @@
         <v>1111</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -4947,22 +4885,22 @@
         <v>1111</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
@@ -4972,22 +4910,22 @@
         <v>1111</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
@@ -5001,16 +4939,16 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
@@ -5020,22 +4958,22 @@
         <v>1111</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
@@ -5045,22 +4983,22 @@
         <v>1111</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
@@ -5074,16 +5012,16 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
@@ -5093,22 +5031,22 @@
         <v>1111</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
@@ -5118,22 +5056,22 @@
         <v>1111</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
@@ -5147,16 +5085,16 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
@@ -5166,22 +5104,22 @@
         <v>1111</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -5191,22 +5129,22 @@
         <v>1111</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -5220,16 +5158,16 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
@@ -5243,16 +5181,16 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
@@ -5266,16 +5204,16 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
@@ -5289,16 +5227,16 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
@@ -5312,16 +5250,16 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
@@ -5335,16 +5273,16 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
@@ -5354,22 +5292,22 @@
         <v>1111</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
@@ -5379,22 +5317,22 @@
         <v>1111</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
@@ -5403,9 +5341,7 @@
       <c r="G71" s="3">
         <v>1111</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>269</v>
-      </c>
+      <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9">
@@ -5428,21 +5364,23 @@
       <c r="G72" s="2">
         <v>1111</v>
       </c>
-      <c r="H72" s="2"/>
+      <c r="H72" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
@@ -5452,22 +5390,22 @@
         <v>1111</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -5477,22 +5415,22 @@
         <v>1111</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
@@ -5502,22 +5440,22 @@
         <v>1111</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
@@ -5527,22 +5465,22 @@
         <v>1111</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
@@ -5552,22 +5490,22 @@
         <v>1111</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -5577,22 +5515,22 @@
         <v>1111</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
@@ -5602,22 +5540,22 @@
         <v>1111</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
@@ -5627,22 +5565,22 @@
         <v>1111</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
@@ -5652,22 +5590,22 @@
         <v>1111</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
@@ -5677,22 +5615,22 @@
         <v>1111</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -5702,22 +5640,22 @@
         <v>1111</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
@@ -5727,22 +5665,22 @@
         <v>1111</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
@@ -5752,22 +5690,22 @@
         <v>1111</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -5777,22 +5715,22 @@
         <v>1111</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
@@ -5802,22 +5740,22 @@
         <v>1111</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I87" s="3"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
@@ -5827,22 +5765,22 @@
         <v>1111</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3" t="s">
@@ -5852,22 +5790,22 @@
         <v>1111</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
@@ -5877,22 +5815,22 @@
         <v>1111</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
@@ -5902,22 +5840,22 @@
         <v>1111</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -5927,22 +5865,22 @@
         <v>1111</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
@@ -5952,22 +5890,22 @@
         <v>1111</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
@@ -5977,22 +5915,22 @@
         <v>1111</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3" t="s">
@@ -6002,22 +5940,22 @@
         <v>1111</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
@@ -6027,22 +5965,22 @@
         <v>1111</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
@@ -6052,22 +5990,22 @@
         <v>1111</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I97" s="3"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
@@ -6077,22 +6015,22 @@
         <v>1111</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3" t="s">
@@ -6102,22 +6040,22 @@
         <v>1111</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I99" s="3"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
@@ -6127,22 +6065,22 @@
         <v>1111</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3" t="s">
@@ -6152,22 +6090,22 @@
         <v>1111</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
@@ -6177,22 +6115,22 @@
         <v>1111</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3" t="s">
@@ -6202,22 +6140,22 @@
         <v>1111</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I103" s="3"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
@@ -6227,22 +6165,22 @@
         <v>1111</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -6252,22 +6190,22 @@
         <v>1111</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I105" s="3"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
@@ -6277,22 +6215,22 @@
         <v>1111</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3" t="s">
@@ -6302,22 +6240,22 @@
         <v>1111</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
@@ -6327,22 +6265,22 @@
         <v>1111</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
@@ -6352,22 +6290,22 @@
         <v>1111</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
@@ -6377,22 +6315,22 @@
         <v>1111</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3" t="s">
@@ -6402,22 +6340,22 @@
         <v>1111</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I111" s="3"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
@@ -6427,22 +6365,22 @@
         <v>1111</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3" t="s">
@@ -6452,22 +6390,22 @@
         <v>1111</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I113" s="3"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
@@ -6477,22 +6415,22 @@
         <v>1111</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3" t="s">
@@ -6501,9 +6439,7 @@
       <c r="G115" s="3">
         <v>1111</v>
       </c>
-      <c r="H115" s="3" t="s">
-        <v>444</v>
-      </c>
+      <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
     <row r="116" spans="1:9">
@@ -7172,29 +7108,6 @@
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G145" s="3">
-        <v>1111</v>
-      </c>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -7217,10 +7130,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7267,16 +7180,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -7285,21 +7198,23 @@
       <c r="G2" s="2">
         <v>1111</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <v>89709</v>
+      </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>126</v>
@@ -7311,16 +7226,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -7334,16 +7249,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -7355,37 +7270,39 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>89601224906</v>
+      </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -7397,16 +7314,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -7418,19 +7335,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>560</v>
+        <v>163</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -7439,19 +7356,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>560</v>
+        <v>163</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -7460,19 +7377,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>560</v>
+        <v>163</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -7481,16 +7398,16 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -7504,16 +7421,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
@@ -7527,16 +7444,16 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>126</v>
@@ -7548,16 +7465,16 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>126</v>
@@ -7569,19 +7486,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>560</v>
+        <v>163</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -7590,19 +7507,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>560</v>
+        <v>163</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -7611,19 +7528,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>560</v>
+        <v>163</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -7632,19 +7549,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -7655,39 +7572,39 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>560</v>
+        <v>163</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>126</v>
@@ -7699,39 +7616,39 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
@@ -7740,69 +7657,71 @@
       <c r="G23" s="3">
         <v>1111</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>603</v>
+      </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1111</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1111</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>611</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
-        <v>614</v>
       </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -7812,70 +7731,70 @@
         <v>1111</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>616</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1111</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1111</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -7885,19 +7804,19 @@
         <v>1111</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>627</v>
@@ -7916,24 +7835,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>608</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1111</v>
-      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
         <v>632</v>
       </c>
@@ -7947,7 +7864,7 @@
         <v>634</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>635</v>
@@ -7970,7 +7887,7 @@
         <v>638</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>639</v>
@@ -7993,45 +7910,20 @@
         <v>642</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1111</v>
-      </c>
+      <c r="E34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="I35" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -8054,10 +7946,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A188" sqref="A188"/>
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8104,16 +7996,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -8129,14 +8021,14 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -8150,14 +8042,14 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -8171,14 +8063,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
@@ -8192,14 +8084,14 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -8213,14 +8105,14 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
@@ -8234,14 +8126,14 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -8255,14 +8147,14 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
@@ -8276,14 +8168,14 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -8297,14 +8189,14 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -8318,14 +8210,14 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -8339,14 +8231,14 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
@@ -8355,19 +8247,21 @@
       <c r="G13" s="3">
         <v>1111</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>678</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -8376,19 +8270,21 @@
       <c r="G14" s="2">
         <v>1111</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>682</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>685</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
@@ -8397,19 +8293,21 @@
       <c r="G15" s="3">
         <v>1111</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>678</v>
+      </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
@@ -8418,21 +8316,19 @@
       <c r="G16" s="2">
         <v>1111</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>690</v>
-      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
@@ -8441,21 +8337,19 @@
       <c r="G17" s="3">
         <v>1111</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>694</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
@@ -8464,21 +8358,19 @@
       <c r="G18" s="2">
         <v>1111</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>690</v>
-      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
@@ -8492,14 +8384,14 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
@@ -8513,14 +8405,14 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -8534,14 +8426,14 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -8555,14 +8447,14 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
@@ -8576,14 +8468,14 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
@@ -8597,14 +8489,14 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>713</v>
+        <v>660</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
@@ -8618,14 +8510,14 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>713</v>
+        <v>657</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -8639,14 +8531,14 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>672</v>
+        <v>712</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
@@ -8660,14 +8552,14 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -8681,14 +8573,14 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -8702,14 +8594,14 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>724</v>
+        <v>660</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -8723,14 +8615,14 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
@@ -8744,14 +8636,14 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
@@ -8765,14 +8657,14 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
@@ -8786,14 +8678,14 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>672</v>
+        <v>727</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
@@ -8807,14 +8699,14 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
@@ -8828,14 +8720,14 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
@@ -8849,14 +8741,14 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>739</v>
+        <v>660</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
@@ -8870,14 +8762,14 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
@@ -8891,14 +8783,14 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
@@ -8912,14 +8804,14 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
@@ -8933,14 +8825,14 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -8954,14 +8846,14 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
@@ -8975,14 +8867,14 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -8996,14 +8888,14 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -9017,14 +8909,14 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>672</v>
+        <v>750</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
@@ -9038,14 +8930,14 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>672</v>
+        <v>753</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -9054,19 +8946,21 @@
       <c r="G46" s="2">
         <v>1111</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>754</v>
+      </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>672</v>
+        <v>757</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
@@ -9075,19 +8969,21 @@
       <c r="G47" s="3">
         <v>1111</v>
       </c>
-      <c r="H47" s="3"/>
+      <c r="H47" s="3" t="s">
+        <v>758</v>
+      </c>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>762</v>
+        <v>688</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
@@ -9101,14 +8997,14 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>765</v>
+        <v>688</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
@@ -9117,21 +9013,19 @@
       <c r="G49" s="3">
         <v>1111</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>766</v>
-      </c>
+      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>764</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>765</v>
+        <v>688</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -9140,21 +9034,19 @@
       <c r="G50" s="2">
         <v>1111</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>766</v>
-      </c>
+      <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>770</v>
+        <v>688</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
@@ -9163,21 +9055,19 @@
       <c r="G51" s="3">
         <v>1111</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>771</v>
-      </c>
+      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>700</v>
+        <v>769</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -9191,14 +9081,14 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>700</v>
+        <v>772</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
@@ -9212,14 +9102,14 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>700</v>
+        <v>775</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
@@ -9233,14 +9123,14 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
@@ -9254,14 +9144,14 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>782</v>
+        <v>654</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
@@ -9275,14 +9165,14 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>785</v>
+        <v>654</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
@@ -9296,14 +9186,14 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>788</v>
+        <v>654</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
@@ -9317,14 +9207,14 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="3" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
@@ -9338,14 +9228,14 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>664</v>
+        <v>788</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
@@ -9359,14 +9249,14 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>664</v>
+        <v>788</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
@@ -9380,14 +9270,14 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>664</v>
+        <v>793</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -9401,14 +9291,14 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -9422,14 +9312,14 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
@@ -9443,14 +9333,14 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
@@ -9464,14 +9354,14 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>805</v>
+        <v>660</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
@@ -9485,14 +9375,14 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
@@ -9506,14 +9396,14 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
@@ -9527,14 +9417,14 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>713</v>
+        <v>660</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
@@ -9548,14 +9438,14 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
@@ -9569,14 +9459,14 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
@@ -9590,14 +9480,14 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>672</v>
+        <v>727</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
@@ -9611,14 +9501,14 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>672</v>
+        <v>727</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
@@ -9632,14 +9522,14 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -9653,14 +9543,14 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
@@ -9674,14 +9564,14 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>739</v>
+        <v>660</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
@@ -9695,14 +9585,14 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="3" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>739</v>
+        <v>824</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
@@ -9716,14 +9606,14 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>672</v>
+        <v>827</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -9737,14 +9627,14 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>672</v>
+        <v>830</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
@@ -9758,14 +9648,14 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>833</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>672</v>
+        <v>833</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
@@ -9795,19 +9685,21 @@
       <c r="G81" s="3">
         <v>1111</v>
       </c>
-      <c r="H81" s="3"/>
+      <c r="H81" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
@@ -9816,19 +9708,21 @@
       <c r="G82" s="2">
         <v>1111</v>
       </c>
-      <c r="H82" s="2"/>
+      <c r="H82" s="2" t="s">
+        <v>841</v>
+      </c>
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -9842,14 +9736,14 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
@@ -9863,14 +9757,14 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="3" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
@@ -9879,21 +9773,19 @@
       <c r="G85" s="3">
         <v>1111</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>849</v>
-      </c>
+      <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -9902,9 +9794,7 @@
       <c r="G86" s="2">
         <v>1111</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>853</v>
-      </c>
+      <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9">
@@ -9916,7 +9806,7 @@
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>856</v>
+        <v>688</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
@@ -9930,14 +9820,14 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>857</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>858</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
@@ -9951,35 +9841,33 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>861</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1111</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>863</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>864</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
@@ -9993,14 +9881,14 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
@@ -10014,14 +9902,14 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>870</v>
+        <v>688</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -10035,33 +9923,35 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
+        <v>688</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1111</v>
+      </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>870</v>
+        <v>688</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
@@ -10075,14 +9965,14 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="3" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3" t="s">
@@ -10096,14 +9986,14 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
@@ -10117,14 +10007,14 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3" t="s">
-        <v>700</v>
+        <v>769</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
@@ -10138,14 +10028,14 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
@@ -10159,14 +10049,14 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3" t="s">
-        <v>664</v>
+        <v>775</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3" t="s">
@@ -10180,14 +10070,14 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
@@ -10201,14 +10091,14 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="3" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3" t="s">
-        <v>782</v>
+        <v>654</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3" t="s">
@@ -10222,14 +10112,14 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
@@ -10243,14 +10133,14 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3" t="s">
-        <v>788</v>
+        <v>654</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3" t="s">
@@ -10264,14 +10154,14 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
@@ -10285,14 +10175,14 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -10306,14 +10196,14 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
@@ -10327,14 +10217,14 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3" t="s">
@@ -10348,14 +10238,14 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
@@ -10369,14 +10259,14 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
@@ -10390,14 +10280,14 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="2" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
-        <v>672</v>
+        <v>788</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
@@ -10411,14 +10301,14 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3" t="s">
-        <v>672</v>
+        <v>788</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3" t="s">
@@ -10432,14 +10322,14 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
@@ -10453,14 +10343,14 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3" t="s">
@@ -10474,14 +10364,14 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
@@ -10495,14 +10385,14 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="3" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3" t="s">
@@ -10516,14 +10406,14 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="2" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
@@ -10537,14 +10427,14 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3" t="s">
@@ -10558,14 +10448,14 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
@@ -10579,14 +10469,14 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3" t="s">
@@ -10600,14 +10490,14 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
@@ -10621,14 +10511,14 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="3" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3" t="s">
-        <v>669</v>
+        <v>727</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3" t="s">
@@ -10642,14 +10532,14 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="2" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
@@ -10663,14 +10553,14 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="3" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3" t="s">
@@ -10684,14 +10574,14 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>672</v>
+        <v>932</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
@@ -10705,14 +10595,14 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3" t="s">
-        <v>739</v>
+        <v>932</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3" t="s">
@@ -10726,14 +10616,14 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="2" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
-        <v>672</v>
+        <v>937</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
@@ -10742,19 +10632,21 @@
       <c r="G126" s="2">
         <v>1111</v>
       </c>
-      <c r="H126" s="2"/>
+      <c r="H126" s="2" t="s">
+        <v>938</v>
+      </c>
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>940</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>941</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -10768,14 +10660,14 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>943</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2" t="s">
-        <v>944</v>
+        <v>788</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
@@ -10789,14 +10681,14 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3" t="s">
@@ -10805,7 +10697,9 @@
       <c r="G129" s="3">
         <v>1111</v>
       </c>
-      <c r="H129" s="3"/>
+      <c r="H129" s="3" t="s">
+        <v>946</v>
+      </c>
       <c r="I129" s="3"/>
     </row>
     <row r="130" spans="1:9">
@@ -10840,7 +10734,7 @@
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3" t="s">
-        <v>672</v>
+        <v>953</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
@@ -10849,19 +10743,21 @@
       <c r="G131" s="3">
         <v>1111</v>
       </c>
-      <c r="H131" s="3"/>
+      <c r="H131" s="3" t="s">
+        <v>954</v>
+      </c>
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
-        <v>658</v>
+        <v>957</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
@@ -10875,14 +10771,14 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="3" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3" t="s">
-        <v>957</v>
+        <v>688</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3" t="s">
@@ -10891,21 +10787,19 @@
       <c r="G133" s="3">
         <v>1111</v>
       </c>
-      <c r="H133" s="3" t="s">
-        <v>958</v>
-      </c>
+      <c r="H133" s="3"/>
       <c r="I133" s="3"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
-        <v>961</v>
+        <v>688</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
@@ -10914,21 +10808,19 @@
       <c r="G134" s="2">
         <v>1111</v>
       </c>
-      <c r="H134" s="2" t="s">
-        <v>962</v>
-      </c>
+      <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>963</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>964</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3" t="s">
-        <v>965</v>
+        <v>688</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3" t="s">
@@ -10937,21 +10829,19 @@
       <c r="G135" s="3">
         <v>1111</v>
       </c>
-      <c r="H135" s="3" t="s">
-        <v>966</v>
-      </c>
+      <c r="H135" s="3"/>
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="2" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2" t="s">
-        <v>969</v>
+        <v>688</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
@@ -10965,14 +10855,14 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="3" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3" t="s">
-        <v>700</v>
+        <v>793</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3" t="s">
@@ -10986,14 +10876,14 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
@@ -11007,14 +10897,14 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="3" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3" t="s">
-        <v>700</v>
+        <v>972</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3" t="s">
@@ -11028,14 +10918,14 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="2" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
@@ -11049,14 +10939,14 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="3" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>805</v>
+        <v>701</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3" t="s">
@@ -11070,14 +10960,14 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="2" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
-        <v>664</v>
+        <v>727</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2" t="s">
@@ -11091,14 +10981,14 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3" t="s">
-        <v>984</v>
+        <v>701</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3" t="s">
@@ -11112,14 +11002,14 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="2" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
@@ -11133,14 +11023,14 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3" t="s">
@@ -11154,14 +11044,14 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="2" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2" t="s">
-        <v>739</v>
+        <v>660</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2" t="s">
@@ -11175,14 +11065,14 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="3" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3" t="s">
-        <v>713</v>
+        <v>660</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -11196,15 +11086,13 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="2" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C148" s="2"/>
-      <c r="D148" s="2" t="s">
-        <v>672</v>
-      </c>
+      <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
         <v>105</v>
@@ -11217,14 +11105,14 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="3" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3" t="s">
-        <v>739</v>
+        <v>993</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3" t="s">
@@ -11233,19 +11121,21 @@
       <c r="G149" s="3">
         <v>1111</v>
       </c>
-      <c r="H149" s="3"/>
+      <c r="H149" s="3" t="s">
+        <v>994</v>
+      </c>
       <c r="I149" s="3"/>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
-        <v>672</v>
+        <v>997</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2" t="s">
@@ -11259,14 +11149,14 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>999</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>1000</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3" t="s">
-        <v>672</v>
+        <v>1000</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3" t="s">
@@ -11275,19 +11165,21 @@
       <c r="G151" s="3">
         <v>1111</v>
       </c>
-      <c r="H151" s="3"/>
+      <c r="H151" s="3" t="s">
+        <v>1001</v>
+      </c>
       <c r="I151" s="3"/>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2" t="s">
@@ -11297,20 +11189,20 @@
         <v>1111</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="I152" s="2"/>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3" t="s">
@@ -11324,14 +11216,14 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2" t="s">
@@ -11341,20 +11233,20 @@
         <v>1111</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="I154" s="2"/>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3" t="s">
@@ -11364,20 +11256,20 @@
         <v>1111</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="I155" s="3"/>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2" t="s">
@@ -11386,19 +11278,21 @@
       <c r="G156" s="2">
         <v>1111</v>
       </c>
-      <c r="H156" s="2"/>
+      <c r="H156" s="2" t="s">
+        <v>1020</v>
+      </c>
       <c r="I156" s="2"/>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="3" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3" t="s">
-        <v>1021</v>
+        <v>688</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3" t="s">
@@ -11407,9 +11301,7 @@
       <c r="G157" s="3">
         <v>1111</v>
       </c>
-      <c r="H157" s="3" t="s">
-        <v>1022</v>
-      </c>
+      <c r="H157" s="3"/>
       <c r="I157" s="3"/>
     </row>
     <row r="158" spans="1:9">
@@ -11421,7 +11313,7 @@
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2" t="s">
-        <v>1025</v>
+        <v>688</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2" t="s">
@@ -11430,21 +11322,19 @@
       <c r="G158" s="2">
         <v>1111</v>
       </c>
-      <c r="H158" s="2" t="s">
-        <v>1026</v>
-      </c>
+      <c r="H158" s="2"/>
       <c r="I158" s="2"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3" t="s">
-        <v>1029</v>
+        <v>688</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="3" t="s">
@@ -11453,21 +11343,19 @@
       <c r="G159" s="3">
         <v>1111</v>
       </c>
-      <c r="H159" s="3" t="s">
-        <v>1030</v>
-      </c>
+      <c r="H159" s="3"/>
       <c r="I159" s="3"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="2" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2" t="s">
@@ -11481,14 +11369,14 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="3" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3" t="s">
@@ -11502,14 +11390,14 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="2" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2" t="s">
@@ -11523,14 +11411,14 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="3" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3" t="s">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3" t="s">
@@ -11544,14 +11432,14 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="2" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2" t="s">
@@ -11565,14 +11453,14 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="3" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3" t="s">
@@ -11586,14 +11474,14 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="2" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2" t="s">
@@ -11607,14 +11495,14 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="3" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3" t="s">
@@ -11628,14 +11516,14 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="2" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2" t="s">
@@ -11649,14 +11537,14 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="3" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3" t="s">
-        <v>672</v>
+        <v>1047</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -11665,19 +11553,21 @@
       <c r="G169" s="3">
         <v>1111</v>
       </c>
-      <c r="H169" s="3"/>
+      <c r="H169" s="3" t="s">
+        <v>1048</v>
+      </c>
       <c r="I169" s="3"/>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2" t="s">
@@ -11691,14 +11581,14 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3" t="s">
@@ -11712,14 +11602,14 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2" t="s">
-        <v>1057</v>
+        <v>688</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2" t="s">
@@ -11728,21 +11618,19 @@
       <c r="G172" s="2">
         <v>1111</v>
       </c>
-      <c r="H172" s="2" t="s">
-        <v>1058</v>
-      </c>
+      <c r="H172" s="2"/>
       <c r="I172" s="2"/>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="3" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3" t="s">
-        <v>700</v>
+        <v>775</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3" t="s">
@@ -11756,14 +11644,14 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="2" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2" t="s">
@@ -11777,14 +11665,14 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="3" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3" t="s">
@@ -11798,14 +11686,14 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="2" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2" t="s">
-        <v>788</v>
+        <v>660</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2" t="s">
@@ -11819,14 +11707,14 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="3" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3" t="s">
-        <v>713</v>
+        <v>654</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3" t="s">
@@ -11840,14 +11728,14 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="2" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2" t="s">
-        <v>713</v>
+        <v>660</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2" t="s">
@@ -11861,14 +11749,14 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="3" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3" t="s">
@@ -11882,14 +11770,14 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="2" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2" t="s">
@@ -11903,14 +11791,14 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="3" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3" t="s">
-        <v>672</v>
+        <v>1073</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3" t="s">
@@ -11924,14 +11812,14 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="2" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2" t="s">
-        <v>672</v>
+        <v>1076</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2" t="s">
@@ -11940,19 +11828,21 @@
       <c r="G182" s="2">
         <v>1111</v>
       </c>
-      <c r="H182" s="2"/>
+      <c r="H182" s="2" t="s">
+        <v>1077</v>
+      </c>
       <c r="I182" s="2"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>1079</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>1080</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3" t="s">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3" t="s">
@@ -11966,14 +11856,14 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>1081</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>1082</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
-        <v>1083</v>
+        <v>657</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2" t="s">
@@ -11987,87 +11877,22 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G185" s="3">
-        <v>1111</v>
-      </c>
-      <c r="H185" s="3" t="s">
-        <v>1087</v>
-      </c>
+        <v>1084</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
       <c r="I185" s="3"/>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="2" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G186" s="2">
-        <v>1111</v>
-      </c>
-      <c r="H186" s="2"/>
-      <c r="I186" s="2"/>
-    </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G187" s="3">
-        <v>1111</v>
-      </c>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
